--- a/data/trans_media/P34F2_HOR_2023-Edad-trans_media.xlsx
+++ b/data/trans_media/P34F2_HOR_2023-Edad-trans_media.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,07</t>
+          <t>0,64; 1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,91</t>
+          <t>0,51; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,95</t>
+          <t>0,63; 0,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,84</t>
+          <t>0,65; 0,84</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,92</t>
+          <t>0,7; 0,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,74</t>
+          <t>0,59; 0,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,99</t>
+          <t>0,62; 0,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,91</t>
+          <t>0,69; 0,91</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,98</t>
+          <t>0,78; 0,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,78</t>
+          <t>0,6; 1,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,51</t>
+          <t>0,7; 1,48</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,12</t>
+          <t>0,7; 1,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,99</t>
+          <t>0,76; 0,99</t>
         </is>
       </c>
     </row>
